--- a/testData/TestCaseFile.xlsx
+++ b/testData/TestCaseFile.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janibashashaik\Downloads\Rest-Assured-main\Rest-Assured-main\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashwini.G.SSTECH\APIAutomationFramework\API-Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4099C69-DD84-451B-B1C7-F9DD1651D2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF64F8F-0BB3-4F9C-B9EF-52A5360495BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="result" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="HTFL" sheetId="3" r:id="rId2"/>
+    <sheet name="result" sheetId="2" r:id="rId3"/>
+    <sheet name="ExternalUser" sheetId="4" r:id="rId4"/>
+    <sheet name="VolunteerModule" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="238">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -422,13 +426,325 @@
   </si>
   <si>
     <t>positive scneario</t>
+  </si>
+  <si>
+    <t>addUsersByAdmin</t>
+  </si>
+  <si>
+    <t>To verify if the admin user is able to add user to the list</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Ashwini</t>
+  </si>
+  <si>
+    <t>Gangarapu</t>
+  </si>
+  <si>
+    <t>ashwini@gmail.com</t>
+  </si>
+  <si>
+    <t>ashwini#######@gmail.com</t>
+  </si>
+  <si>
+    <t>addUsersByAdminMissingFieldValidations</t>
+  </si>
+  <si>
+    <t>addUsersByAdminEmptyFieldValidations</t>
+  </si>
+  <si>
+    <t>EmptyField</t>
+  </si>
+  <si>
+    <t>addUsersByAdminInvalidFieldValidations</t>
+  </si>
+  <si>
+    <t>Ashwini123</t>
+  </si>
+  <si>
+    <t>Ashwini$#@</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>1234$#^&amp;</t>
+  </si>
+  <si>
+    <t>*&amp;^%$#</t>
+  </si>
+  <si>
+    <t>Gangarapu123</t>
+  </si>
+  <si>
+    <t>Gangarapu#$%^&amp;</t>
+  </si>
+  <si>
+    <t>Ashwnini!@#$%^1234</t>
+  </si>
+  <si>
+    <t>Gangarapu1234%^&amp;*</t>
+  </si>
+  <si>
+    <t>9876543</t>
+  </si>
+  <si>
+    <t>2345&amp;^%$#</t>
+  </si>
+  <si>
+    <t>ashwini*&amp;^%@gmail.com</t>
+  </si>
+  <si>
+    <t>12344567@gmail.com</t>
+  </si>
+  <si>
+    <t>@#$%^&amp;@gmail.com</t>
+  </si>
+  <si>
+    <t>ashwini</t>
+  </si>
+  <si>
+    <t>ashwinigmail.com</t>
+  </si>
+  <si>
+    <t>ashwini@gmailcom</t>
+  </si>
+  <si>
+    <t>ashwini@1234567.com</t>
+  </si>
+  <si>
+    <t>ashwnini@*&amp;^%$.com</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>5Five</t>
+  </si>
+  <si>
+    <t>5$%^&amp;</t>
+  </si>
+  <si>
+    <t>Five$#&amp;</t>
+  </si>
+  <si>
+    <t>Five$%^&amp;</t>
+  </si>
+  <si>
+    <t>ValidationType</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>To verify if the a user id able to register to the application.</t>
+  </si>
+  <si>
+    <t>Welcome@1</t>
+  </si>
+  <si>
+    <t>##########</t>
+  </si>
+  <si>
+    <t>To verify if the field FirstName is available in the request.</t>
+  </si>
+  <si>
+    <t>To verify if the field LastName is available in the request.</t>
+  </si>
+  <si>
+    <t>To verify if the field EmailAddress is available in the request.</t>
+  </si>
+  <si>
+    <t>To verify if the field Password is available in the request.</t>
+  </si>
+  <si>
+    <t>To verify if the field PhoneNumber is available in the request.</t>
+  </si>
+  <si>
+    <t>addExternalUser</t>
+  </si>
+  <si>
+    <t>addExternalUserMissingFieldValidations</t>
+  </si>
+  <si>
+    <t>addExternalUserEmptyFieldValidations</t>
+  </si>
+  <si>
+    <t>To verify the field value can not be empty.</t>
+  </si>
+  <si>
+    <t>To verify the field validation for data acceptance.</t>
+  </si>
+  <si>
+    <t>welcome@1</t>
+  </si>
+  <si>
+    <t>WELCOME@1</t>
+  </si>
+  <si>
+    <t>Welcome@</t>
+  </si>
+  <si>
+    <t>Welcome1</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>InvalidFieldValidations</t>
+  </si>
+  <si>
+    <t>addExternalUserInvalidFieldValidations</t>
+  </si>
+  <si>
+    <t>DuplicateValidations</t>
+  </si>
+  <si>
+    <t>add ExternalUserDuplicatevalidation</t>
+  </si>
+  <si>
+    <t>To verify proper validation message is displayed when a duplicate email address is used again to register</t>
+  </si>
+  <si>
+    <t>ashwini@mailinator.com</t>
+  </si>
+  <si>
+    <t>To verify proper validation message is displayed when a duplicate phone number is used again to register</t>
+  </si>
+  <si>
+    <t>Welcome@2</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>ItemIsActive</t>
+  </si>
+  <si>
+    <t>Post-Volunteer-Item</t>
+  </si>
+  <si>
+    <t>To verify a new volunteer item can be added.</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>volunteer to train interested candidate in automation.</t>
+  </si>
+  <si>
+    <t>Automation###</t>
+  </si>
+  <si>
+    <t>Post-Volunteer-Item missing field validations</t>
+  </si>
+  <si>
+    <t>"invalid input for volunteer item name"</t>
+  </si>
+  <si>
+    <t>Response message</t>
+  </si>
+  <si>
+    <t>To verify if ItemName field is available in the request.</t>
+  </si>
+  <si>
+    <t>To verify if ItemDescription field is not a mandatory field.</t>
+  </si>
+  <si>
+    <t>To verify if ItemIsActive field is not a mandatory field.</t>
+  </si>
+  <si>
+    <t>To verify if ItemName field is not accepting null as its value.</t>
+  </si>
+  <si>
+    <t>To verify if ItemDescription field is accepting null as its value.</t>
+  </si>
+  <si>
+    <t>bad request as it is boolean field.</t>
+  </si>
+  <si>
+    <t>Post-Volunteer-ItemEmptyFieldValidations</t>
+  </si>
+  <si>
+    <t>To Verify if ItemIsActive field is not accepting any value other than boolean values.</t>
+  </si>
+  <si>
+    <t>To Verify if ItemIsActive field is accepting boolean values in only lowercase.</t>
+  </si>
+  <si>
+    <t>bad request as value should be only in lowercase.</t>
+  </si>
+  <si>
+    <t>Post-Volunteer-ItemInvalidFieldValidations</t>
+  </si>
+  <si>
+    <t>Post-Volunteer-ItemDuplicateValidations</t>
+  </si>
+  <si>
+    <t>To verify if duplicate ItemName is not being accepted.</t>
+  </si>
+  <si>
+    <t>Record already exist with the volunteer item name</t>
+  </si>
+  <si>
+    <t>abc123!#$</t>
+  </si>
+  <si>
+    <t>"FALSE"</t>
+  </si>
+  <si>
+    <t>Get-Volunteer-ItemList</t>
+  </si>
+  <si>
+    <t>To verify if the posted record is displayed in the GET response data.</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that the posted record has a unique VolunteerItemId generated </t>
+  </si>
+  <si>
+    <t>To verify that the record from the get has exactly same data from the POST request.</t>
+  </si>
+  <si>
+    <t>8765456789</t>
+  </si>
+  <si>
+    <t>6#########</t>
+  </si>
+  <si>
+    <t>5#########</t>
+  </si>
+  <si>
+    <t>89##</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -450,8 +766,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00627A"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +799,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -488,13 +829,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -507,8 +860,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -527,9 +907,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,9 +947,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,26 +982,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,26 +1017,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,14 +1192,1300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F70D5B-1E4A-4482-872A-69F2588AF723}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22009F1-9840-4475-9B23-EF922CC63F5F}">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{BD89DA94-7E84-46A7-AA68-F880ACA27CBB}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{EB0F4A95-A1C8-46EA-AD13-AB55F48C0FBC}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{E819BEBB-042D-4E3E-8D45-F32ACA08ECA1}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{3DDF7DCD-AF0C-4A4B-BEC0-1D9FF8A25DBD}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{5955D394-5084-4ABA-8381-4DF4B70E93F4}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{49EBE149-3630-4646-ACEB-6E2B63A5FF48}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{8AD0EAFA-DC76-429A-902E-BB15C9454E7B}"/>
+    <hyperlink ref="G14" r:id="rId8" xr:uid="{8646E7CE-E56B-48E8-9498-0C238E311B25}"/>
+    <hyperlink ref="G16" r:id="rId9" xr:uid="{18F97541-9FED-410D-9110-F6B2025DF114}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{F67276B7-89D3-4CDA-BD24-54B2C2C9996D}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{3EA3964C-D5E5-4360-A365-62481E74A82F}"/>
+    <hyperlink ref="G17" r:id="rId12" xr:uid="{6F0B6BE7-25EE-48DA-ABEF-714DAA205B57}"/>
+    <hyperlink ref="G18" r:id="rId13" xr:uid="{CCEC6C18-D85D-4CF7-9F80-CD84DDC57D97}"/>
+    <hyperlink ref="G19" r:id="rId14" xr:uid="{504859F2-983F-4D2A-8CA3-46FD6EDA1B23}"/>
+    <hyperlink ref="G20" r:id="rId15" xr:uid="{012A40FB-D877-4D46-B3F3-53162F84851E}"/>
+    <hyperlink ref="G21" r:id="rId16" xr:uid="{8DE95D1A-AC10-4E0C-B113-B31B68459025}"/>
+    <hyperlink ref="G22:G27" r:id="rId17" display="ashwini#######@gmail.com" xr:uid="{6F212A01-11CA-4678-88F4-9B1F8CCBB661}"/>
+    <hyperlink ref="G28" r:id="rId18" xr:uid="{5659DA56-58BF-4624-A72A-A7C929585C4F}"/>
+    <hyperlink ref="G29" r:id="rId19" xr:uid="{42B07418-0687-4730-98EC-AC4B913C109F}"/>
+    <hyperlink ref="G33" r:id="rId20" xr:uid="{DD5F8E43-437D-4548-875B-F9267DEC6766}"/>
+    <hyperlink ref="G34" r:id="rId21" xr:uid="{3DF92BB1-A5BF-48B8-A638-C56E4161EFA4}"/>
+    <hyperlink ref="G35" r:id="rId22" xr:uid="{D5BB1234-6CED-4A35-AD39-8F51EA16A5C0}"/>
+    <hyperlink ref="G36" r:id="rId23" xr:uid="{122DB8AC-5EBA-4143-B9FC-FF925489DDC2}"/>
+    <hyperlink ref="G37" r:id="rId24" xr:uid="{41FFCBE1-025E-4D49-A251-141CD140151C}"/>
+    <hyperlink ref="G38" r:id="rId25" xr:uid="{299AE1CF-E428-4684-ABB0-78183C3D5D8D}"/>
+    <hyperlink ref="G39" r:id="rId26" xr:uid="{EFE84F77-5480-4649-887D-B5B4A627AC91}"/>
+    <hyperlink ref="G40" r:id="rId27" xr:uid="{C9B16D0A-1258-4E0A-919B-CF427829AE43}"/>
+    <hyperlink ref="G7" r:id="rId28" xr:uid="{D9190DB4-8029-4BBF-82FD-C60B896F7965}"/>
+    <hyperlink ref="G13" r:id="rId29" xr:uid="{3AD7E2EC-B911-4B46-AEA0-E89FA2703A2F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -872,7 +2504,7 @@
     <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -919,7 +2551,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -966,7 +2598,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +2645,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +2689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1101,7 +2733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +2768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1171,7 +2803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +2844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1253,7 +2885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +2923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1329,7 +2961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -1367,7 +2999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1405,7 +3037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1443,7 +3075,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1481,7 +3113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1519,7 +3151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1557,7 +3189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1595,7 +3227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1633,7 +3265,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1671,7 +3303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1709,7 +3341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +3379,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1785,7 +3417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1823,7 +3455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1861,7 +3493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +3531,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1937,7 +3569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1975,7 +3607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2013,7 +3645,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -2051,7 +3683,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2089,7 +3721,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +3759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -2165,7 +3797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2203,7 +3835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2241,7 +3873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -2279,7 +3911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2317,7 +3949,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -2355,7 +3987,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -2393,7 +4025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2431,7 +4063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -2469,7 +4101,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -2507,7 +4139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -2545,7 +4177,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -2583,7 +4215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -2621,7 +4253,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -2659,7 +4291,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -2697,7 +4329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +4367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -2773,7 +4405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -2811,7 +4443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2849,7 +4481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2887,7 +4519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -2925,7 +4557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -2963,7 +4595,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3001,7 +4633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -3039,7 +4671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -3077,7 +4709,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -3115,7 +4747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -3153,7 +4785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -3191,7 +4823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -3229,7 +4861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3267,7 +4899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -3305,7 +4937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -3343,7 +4975,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3381,7 +5013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -3419,7 +5051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -3457,7 +5089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -3495,7 +5127,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3533,7 +5165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3571,7 +5203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -3609,7 +5241,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3647,7 +5279,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3685,7 +5317,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -3723,7 +5355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3761,7 +5393,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -3799,7 +5431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -3837,7 +5469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -3875,7 +5507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>68</v>
       </c>
@@ -3913,7 +5545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>68</v>
       </c>
@@ -3951,7 +5583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>68</v>
       </c>
@@ -3989,7 +5621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -4027,7 +5659,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -4065,7 +5697,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -4103,7 +5735,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -4141,7 +5773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -4179,7 +5811,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>68</v>
       </c>
@@ -4217,7 +5849,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>68</v>
       </c>
@@ -4255,7 +5887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -4293,7 +5925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>68</v>
       </c>
@@ -4331,7 +5963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>68</v>
       </c>
@@ -4369,7 +6001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>68</v>
       </c>
@@ -4407,7 +6039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>68</v>
       </c>
@@ -4445,7 +6077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>68</v>
       </c>
@@ -4483,7 +6115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>68</v>
       </c>
@@ -4521,7 +6153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>68</v>
       </c>
@@ -4559,7 +6191,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>68</v>
       </c>
@@ -4597,7 +6229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>68</v>
       </c>
@@ -4635,7 +6267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -4673,7 +6305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100" s="2" t="s">
         <v>0</v>
       </c>
@@ -4714,7 +6346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4755,7 +6387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -4796,7 +6428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -4837,7 +6469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -4878,7 +6510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -4919,7 +6551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -4960,7 +6592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -5001,7 +6633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -5042,7 +6674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -5083,7 +6715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
         <v>0</v>
       </c>
@@ -5124,7 +6756,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -5165,7 +6797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -5206,7 +6838,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -5247,7 +6879,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -5288,7 +6920,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -5329,7 +6961,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -5370,7 +7002,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -5411,7 +7043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -5452,7 +7084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -5493,7 +7125,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -5534,7 +7166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -5575,7 +7207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>115</v>
       </c>
@@ -5616,7 +7248,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>115</v>
       </c>
@@ -5657,7 +7289,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -5698,7 +7330,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -5739,7 +7371,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>115</v>
       </c>
@@ -5780,7 +7412,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>115</v>
       </c>
@@ -5821,7 +7453,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>115</v>
       </c>
@@ -5862,7 +7494,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>115</v>
       </c>
@@ -5903,7 +7535,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>115</v>
       </c>
@@ -5944,7 +7576,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>115</v>
       </c>
@@ -5985,7 +7617,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>115</v>
       </c>
@@ -6026,7 +7658,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -6067,7 +7699,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>115</v>
       </c>
@@ -6108,7 +7740,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>115</v>
       </c>
@@ -6149,7 +7781,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>115</v>
       </c>
@@ -6190,7 +7822,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>115</v>
       </c>
@@ -6231,7 +7863,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>115</v>
       </c>
@@ -6272,7 +7904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>115</v>
       </c>
@@ -6313,7 +7945,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>115</v>
       </c>
@@ -6354,7 +7986,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>115</v>
       </c>
@@ -6395,7 +8027,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>115</v>
       </c>
@@ -6436,7 +8068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>115</v>
       </c>
@@ -6477,7 +8109,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>115</v>
       </c>
@@ -6518,7 +8150,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>115</v>
       </c>
@@ -6559,7 +8191,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>115</v>
       </c>
@@ -6600,7 +8232,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
         <v>115</v>
       </c>
@@ -6641,7 +8273,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
         <v>115</v>
       </c>
@@ -6682,7 +8314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>115</v>
       </c>
@@ -6723,7 +8355,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
         <v>115</v>
       </c>
@@ -6764,7 +8396,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
         <v>115</v>
       </c>
@@ -6805,7 +8437,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
         <v>115</v>
       </c>
@@ -6846,7 +8478,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>115</v>
       </c>
@@ -6887,7 +8519,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
         <v>115</v>
       </c>
@@ -6928,7 +8560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
         <v>115</v>
       </c>
@@ -6969,7 +8601,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
         <v>115</v>
       </c>
@@ -7010,7 +8642,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>115</v>
       </c>
@@ -7051,7 +8683,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
         <v>115</v>
       </c>
@@ -7092,7 +8724,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
         <v>115</v>
       </c>
@@ -7133,7 +8765,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -7174,7 +8806,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
         <v>115</v>
       </c>
@@ -7215,7 +8847,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
         <v>115</v>
       </c>
@@ -7256,7 +8888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
         <v>115</v>
       </c>
@@ -7297,7 +8929,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
         <v>115</v>
       </c>
@@ -7338,7 +8970,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
         <v>115</v>
       </c>
@@ -7379,7 +9011,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
         <v>115</v>
       </c>
@@ -7420,7 +9052,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
         <v>115</v>
       </c>
@@ -7461,7 +9093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
         <v>115</v>
       </c>
@@ -7502,7 +9134,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
         <v>115</v>
       </c>
@@ -7543,7 +9175,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
         <v>115</v>
       </c>
@@ -7584,7 +9216,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
         <v>115</v>
       </c>
@@ -7625,7 +9257,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
         <v>115</v>
       </c>
@@ -7666,7 +9298,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
         <v>115</v>
       </c>
@@ -7707,7 +9339,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
         <v>115</v>
       </c>
@@ -7748,7 +9380,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
         <v>115</v>
       </c>
@@ -7789,7 +9421,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
         <v>115</v>
       </c>
@@ -7830,7 +9462,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
         <v>115</v>
       </c>
@@ -7871,7 +9503,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
         <v>115</v>
       </c>
@@ -7912,7 +9544,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
         <v>115</v>
       </c>
@@ -7953,7 +9585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
         <v>115</v>
       </c>
@@ -7994,7 +9626,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
         <v>115</v>
       </c>
@@ -8035,7 +9667,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
         <v>115</v>
       </c>
@@ -8076,7 +9708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
         <v>115</v>
       </c>
@@ -8117,7 +9749,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
         <v>115</v>
       </c>
@@ -8158,7 +9790,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
         <v>115</v>
       </c>
@@ -8199,7 +9831,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
         <v>115</v>
       </c>
@@ -8240,7 +9872,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
         <v>115</v>
       </c>
@@ -8281,7 +9913,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
         <v>115</v>
       </c>
@@ -8322,7 +9954,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
         <v>115</v>
       </c>
@@ -8363,7 +9995,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
         <v>115</v>
       </c>
@@ -8408,4 +10040,2312 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A5DC7-A7EF-4DCF-AAC1-97DAB390F425}">
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="50" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8">
+      <c r="A6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8">
+      <c r="A8" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28.8">
+      <c r="A47" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28.8">
+      <c r="A48" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="9">
+        <v>1234567890</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{DC7B1B69-0771-4D9D-AC9C-039A1AB9510C}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{C8E0BC78-CB90-4B3B-A77B-72BC000EBAC7}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{263F55C6-4740-4F5B-9619-26F2ABC4E7F2}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{97637AEA-0C7C-4D97-8645-581BADAB4E6E}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{E8735DBF-B2CB-483D-B25D-C4E12FEFA99E}"/>
+    <hyperlink ref="H5" r:id="rId6" xr:uid="{2EA24C0D-3BD9-4E47-9BB7-5E05527BCB68}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{55196381-6AB3-4DC3-B66F-EEBB35221799}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{60D3E406-DA5D-4CEB-AA27-025A20A6BB2D}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{DC077BAA-E689-4E81-9EED-B2C19E28E1DE}"/>
+    <hyperlink ref="H7" r:id="rId10" xr:uid="{C5209B0E-95CF-4B39-9886-4E38D989C209}"/>
+    <hyperlink ref="G8" r:id="rId11" xr:uid="{7A71D0D7-912D-46C5-B4B5-03A7CC8EAE76}"/>
+    <hyperlink ref="H8" r:id="rId12" xr:uid="{E4BC1C55-959A-4759-9338-CA894CE43003}"/>
+    <hyperlink ref="G10" r:id="rId13" xr:uid="{0574B937-193A-46C5-B7E6-CAC469C4A5F2}"/>
+    <hyperlink ref="H10" r:id="rId14" xr:uid="{53D49571-A71E-4C01-A1B6-3F4252CDFDCD}"/>
+    <hyperlink ref="G11" r:id="rId15" xr:uid="{50B624B2-8037-4306-ADDF-3AF07A0991CE}"/>
+    <hyperlink ref="H11" r:id="rId16" xr:uid="{EBFE85B1-8A0B-4D8A-8ED2-63E3F1EF5474}"/>
+    <hyperlink ref="G12" r:id="rId17" xr:uid="{4109F950-3FF0-4C2B-9D1A-098302235244}"/>
+    <hyperlink ref="H12" r:id="rId18" xr:uid="{768329D2-80C6-4F99-95C2-7C2A282C4B02}"/>
+    <hyperlink ref="G13" r:id="rId19" xr:uid="{4BDDE20E-D449-44D7-9BA1-E6634F9D6891}"/>
+    <hyperlink ref="H13" r:id="rId20" xr:uid="{F11132A9-1BB3-4D25-9AA8-6E3A582CEF74}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{C3FE1793-53BD-4DFE-8576-F4A937863A82}"/>
+    <hyperlink ref="H14" r:id="rId22" xr:uid="{31024916-97F7-465F-981A-41B7308ECD04}"/>
+    <hyperlink ref="G16" r:id="rId23" xr:uid="{027F70D2-187E-4B0D-A3F0-0C9D0F501556}"/>
+    <hyperlink ref="H16" r:id="rId24" xr:uid="{2A141F7A-8358-4EB3-94EE-A741FD8455BA}"/>
+    <hyperlink ref="E17" r:id="rId25" xr:uid="{2155478C-A107-41FC-A972-8DF83C12DC26}"/>
+    <hyperlink ref="E18" r:id="rId26" xr:uid="{2C8F4290-A43D-448A-898A-69D501650EE2}"/>
+    <hyperlink ref="G17:G21" r:id="rId27" display="ashwini#######@gmail.com" xr:uid="{F8963968-E9A4-4B8A-8E7A-3555AE013147}"/>
+    <hyperlink ref="G22:G27" r:id="rId28" display="ashwini#######@gmail.com" xr:uid="{0EC6D994-8792-4107-A508-9405F2F61C55}"/>
+    <hyperlink ref="G28" r:id="rId29" xr:uid="{6AC45CC8-2E9D-4C84-A50E-15566D94958A}"/>
+    <hyperlink ref="G29" r:id="rId30" xr:uid="{8540815B-03E2-4E02-B13D-2E23816C3161}"/>
+    <hyperlink ref="G33" r:id="rId31" xr:uid="{60EE36F9-EC02-46E0-8939-8CF7C9425412}"/>
+    <hyperlink ref="G34" r:id="rId32" xr:uid="{E50F652E-1B75-423F-94E9-DC03EAD35B78}"/>
+    <hyperlink ref="G35" r:id="rId33" xr:uid="{82C07EE0-01CE-41D1-AA99-ADE3558C0C63}"/>
+    <hyperlink ref="G36" r:id="rId34" xr:uid="{A2FA4BFE-0A46-4485-B226-C6C0E44D583A}"/>
+    <hyperlink ref="H17:H40" r:id="rId35" display="Welcome@1" xr:uid="{6B9925ED-F4C5-441C-A2BD-2C2A947627B6}"/>
+    <hyperlink ref="H41" r:id="rId36" xr:uid="{84BADC91-D4C6-454D-9F39-A092747895C4}"/>
+    <hyperlink ref="H42" r:id="rId37" xr:uid="{281021A4-1AE0-464C-8E5F-0B95A28292C4}"/>
+    <hyperlink ref="H43" r:id="rId38" xr:uid="{E0BF0229-83B7-431C-937B-07A32B9E2930}"/>
+    <hyperlink ref="G17" r:id="rId39" xr:uid="{A6A2600C-FD9E-4A92-911F-EAD85F1B88D4}"/>
+    <hyperlink ref="G37:G45" r:id="rId40" display="ashwini#######@gmail.com" xr:uid="{EE0013F5-B2F0-454F-AF51-E365EEC58B73}"/>
+    <hyperlink ref="G47" r:id="rId41" xr:uid="{8FA16033-C4B3-4464-9AC3-7EA0E088C68B}"/>
+    <hyperlink ref="H47" r:id="rId42" xr:uid="{37FA5133-F2B7-4274-B413-A9150F654D48}"/>
+    <hyperlink ref="G48" r:id="rId43" xr:uid="{A6FB9C46-CB8F-48CA-ACC8-D6DE62EF49E3}"/>
+    <hyperlink ref="H48" r:id="rId44" display="Welcome@1" xr:uid="{E742FEE7-A315-4D77-99BA-0FF7970900DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059DBEEF-D9C1-4184-B4C5-93ABA2D22D06}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="66.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8">
+      <c r="A4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8">
+      <c r="A5" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8">
+      <c r="A6" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8">
+      <c r="A8" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8">
+      <c r="A9" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8">
+      <c r="A10" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8">
+      <c r="A12" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8">
+      <c r="A13" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8">
+      <c r="A15" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G12" r:id="rId1" display="abc123!@#" xr:uid="{BB347834-69BF-426C-8846-D666F1AC16CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>